--- a/biology/Zoologie/Corasoides_angusi/Corasoides_angusi.xlsx
+++ b/biology/Zoologie/Corasoides_angusi/Corasoides_angusi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Corasoides angusi est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Corasoides angusi est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Morobe en Papouasie-Nouvelle-Guinée[1],[2]. Elle se rencontre au nord de Wau dans les monts Kuper.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Morobe en Papouasie-Nouvelle-Guinée,. Elle se rencontre au nord de Wau dans les monts Kuper.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,3 mm de long sur 4,3 mm et l'abdomen 6,6 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 6,3 mm de long sur 4,8 mm et l'abdomen 7,6 mm de long sur 5,1 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,3 mm de long sur 4,3 mm et l'abdomen 6,6 mm de long sur 3,1 mm et la carapace de la femelle paratype mesure 6,3 mm de long sur 4,8 mm et l'abdomen 7,6 mm de long sur 5,1 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Warrick Angus[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Warrick Angus.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Humphrey, 2017 : A revision and cladistic analysis of the genus Corasoides Butler (Araneae: Desidae) with descriptions of nine new species. Records of the Australian Museum, vol. 69, no 1, p. 15-64 (texte intégral).</t>
         </is>
